--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3851.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3851.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.051946244178846</v>
+        <v>2.76995849609375</v>
       </c>
       <c r="B1">
-        <v>1.733349055182759</v>
+        <v>5.384731769561768</v>
       </c>
       <c r="C1">
-        <v>3.794035244114249</v>
+        <v>6.220949172973633</v>
       </c>
       <c r="D1">
-        <v>4.600768477188277</v>
+        <v>6.496116638183594</v>
       </c>
       <c r="E1">
-        <v>1.599822142064513</v>
+        <v>4.951488494873047</v>
       </c>
     </row>
   </sheetData>
